--- a/uipath/performance chart/prestige_performance_chart/performance_chart.xlsx
+++ b/uipath/performance chart/prestige_performance_chart/performance_chart.xlsx
@@ -382,7 +382,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -407,7 +407,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0083725291</x:v>
+        <x:v>-0.0011033036</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -432,7 +432,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.854852541043186</x:v>
+        <x:v>0.853909379157184</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -457,7 +457,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0127848002</x:v>
+        <x:v>-0.0056433626</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/performance chart/prestige_performance_chart/performance_chart.xlsx
+++ b/uipath/performance chart/prestige_performance_chart/performance_chart.xlsx
@@ -382,7 +382,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -407,7 +407,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0011033036</x:v>
+        <x:v>-0.0054138351</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -432,7 +432,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.853909379157184</x:v>
+        <x:v>0.847179752826723</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -457,7 +457,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0056433626</x:v>
+        <x:v>-0.0032898446</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -482,7 +482,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.85232789264951</x:v>
+        <x:v>0.855423126558675</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
